--- a/medicine/Enfance/Platypus_Theater/Platypus_Theater.xlsx
+++ b/medicine/Enfance/Platypus_Theater/Platypus_Theater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le théâtre Platypus (Platypus Theater) est une troupe de théâtre pour la jeunesse qui propose des pièces en anglais au jeune public allemand[2]. N'ayant pas de scène propre, il se produit le plus souvent au Berliner Kabarett Anstalt (Mehringdamm) ou à l'ufaFabrik (Berlin-Tempelhof).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le théâtre Platypus (Platypus Theater) est une troupe de théâtre pour la jeunesse qui propose des pièces en anglais au jeune public allemand. N'ayant pas de scène propre, il se produit le plus souvent au Berliner Kabarett Anstalt (Mehringdamm) ou à l'ufaFabrik (Berlin-Tempelhof).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut fondé en 1985 par les Australiens Peter Scollin et Frau Anja Scollin. La première pièce à être montée fut Le clown au pays des kangourous, pour enfants à partir de 3 ans. Ce ne fut qu'en 1992 que le théâtre Platypus produisit une pièce en anglais (Teenagers in Trouble) mais, depuis lors, travaille avec des auteurs, acteurs et collaborateurs venus de tout le monde anglophone. Toutes les pièces bénéficient d'une approche pédagogique. 
 Soutenu par plusieurs collectivités locales berlinoises, le théâtre Platypus touche environ 20 000 spectateurs par an avec environ 130 représentations.
